--- a/www/IndicatorsPerCountry/Egypt_HistoricalGenderEqualityIndex_TerritorialRef_1979_2012_CCode_818.xlsx
+++ b/www/IndicatorsPerCountry/Egypt_HistoricalGenderEqualityIndex_TerritorialRef_1979_2012_CCode_818.xlsx
@@ -84,13 +84,13 @@
     <t>Carmichael, Sarah, Selin Dilli and Auke Rijpma (2015). Historical Gender Equality Index. http://hdl.handle.net/10622/VHYIAT, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_VHYIAT.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_VHYIAT.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_VHYIAT.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_VHYIAT.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_VHYIAT.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_VHYIAT.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Egypt_HistoricalGenderEqualityIndex_TerritorialRef_1979_2012_CCode_818.xlsx
+++ b/www/IndicatorsPerCountry/Egypt_HistoricalGenderEqualityIndex_TerritorialRef_1979_2012_CCode_818.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="73">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,25 +36,166 @@
     <t>Historical Gender Equality Index</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
+    <t>47.6860514512224</t>
+  </si>
+  <si>
+    <t>49.6185895093642</t>
+  </si>
+  <si>
+    <t>51.6276121239634</t>
+  </si>
+  <si>
+    <t>53.1372870076407</t>
+  </si>
+  <si>
+    <t>52.8376231456738</t>
+  </si>
+  <si>
+    <t>49.567431893131</t>
+  </si>
+  <si>
+    <t>53.2237566352238</t>
+  </si>
+  <si>
+    <t>51.8567635167221</t>
+  </si>
+  <si>
+    <t>51.6488450173167</t>
+  </si>
+  <si>
+    <t>50.6255488621297</t>
+  </si>
+  <si>
+    <t>47.4786373299898</t>
+  </si>
+  <si>
+    <t>51.6991131523796</t>
+  </si>
+  <si>
+    <t>52.6068620226114</t>
+  </si>
+  <si>
+    <t>53.5710527081509</t>
+  </si>
+  <si>
+    <t>54.558618761461</t>
+  </si>
+  <si>
+    <t>49.7373483587757</t>
+  </si>
+  <si>
+    <t>49.9441815399539</t>
+  </si>
+  <si>
+    <t>51.931611970664</t>
+  </si>
+  <si>
+    <t>53.9519406120197</t>
+  </si>
+  <si>
+    <t>51.2094903299461</t>
+  </si>
+  <si>
+    <t>52.1890630652693</t>
+  </si>
+  <si>
+    <t>51.5896710601866</t>
+  </si>
+  <si>
+    <t>52.0680990577296</t>
+  </si>
+  <si>
+    <t>50.9061948205445</t>
+  </si>
+  <si>
+    <t>51.8078057131233</t>
+  </si>
+  <si>
+    <t>50.0077280888674</t>
+  </si>
+  <si>
+    <t>52.1914513485092</t>
+  </si>
+  <si>
+    <t>50.6107293738557</t>
+  </si>
+  <si>
+    <t>50.9840304763341</t>
+  </si>
+  <si>
+    <t>52.5904240370903</t>
+  </si>
+  <si>
+    <t>54.2510949129027</t>
+  </si>
+  <si>
+    <t>52.0163002527306</t>
+  </si>
+  <si>
+    <t>55.6710492175282</t>
+  </si>
+  <si>
+    <t>55.0926243899877</t>
+  </si>
+  <si>
+    <t>55.9820801439313</t>
+  </si>
+  <si>
+    <t>56.613607464938</t>
+  </si>
+  <si>
+    <t>54.4366836000641</t>
+  </si>
+  <si>
+    <t>53.9321112759192</t>
+  </si>
+  <si>
+    <t>53.7555650783035</t>
+  </si>
+  <si>
+    <t>57.113843288103</t>
+  </si>
+  <si>
+    <t>55.216000851344</t>
+  </si>
+  <si>
+    <t>56.8275072040785</t>
+  </si>
+  <si>
+    <t>58.4532993738051</t>
+  </si>
+  <si>
+    <t>56.5797871834227</t>
+  </si>
+  <si>
+    <t>57.0165810019003</t>
+  </si>
+  <si>
+    <t>57.5264095342305</t>
+  </si>
+  <si>
+    <t>54.239603289636</t>
+  </si>
+  <si>
+    <t>54.2021740617123</t>
+  </si>
+  <si>
+    <t>55.5020346738384</t>
+  </si>
+  <si>
+    <t>57.5160115450684</t>
+  </si>
+  <si>
+    <t>59.2173055880656</t>
+  </si>
+  <si>
+    <t>55.7264619580045</t>
+  </si>
+  <si>
+    <t>57.2452684000787</t>
+  </si>
+  <si>
+    <t>57.7321338324029</t>
   </si>
   <si>
     <t>Description</t>
@@ -81,7 +222,7 @@
     <t>https://www.clio-infra.eu/IndicatorsPerCountry/Egypt_HistoricalGenderEqualityIndex_TerritorialRef_1979_2012_CCode_818.xlsx</t>
   </si>
   <si>
-    <t>Carmichael, Sarah, Selin Dilli and Auke Rijpma (2015). Historical Gender Equality Index. http://hdl.handle.net/10622/VHYIAT, accessed via the Clio Infra website.</t>
+    <t>Carmichael, Sarah, Selin Dilli, and Auke Rijpma (2015). Historical Gender Equality Index. http://hdl.handle.net/10622/VHYIAT, accessed via the Clio Infra website.</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_VHYIAT.xml</t>
@@ -169,7 +310,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1910.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -186,7 +327,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1911.0</v>
+        <v>1951.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -203,10 +344,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1912.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -220,10 +361,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1913.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -237,10 +378,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1914.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -254,10 +395,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1915.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -271,10 +412,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1916.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -288,10 +429,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1917.0</v>
+        <v>1957.0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -305,10 +446,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1918.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -322,10 +463,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1919.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -339,10 +480,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1920.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -356,10 +497,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1921.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -373,10 +514,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1922.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -390,10 +531,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1923.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -407,10 +548,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1924.0</v>
+        <v>1964.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -424,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1925.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -441,10 +582,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1926.0</v>
+        <v>1966.0</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -458,10 +599,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1927.0</v>
+        <v>1967.0</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -475,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1928.0</v>
+        <v>1968.0</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -492,10 +633,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1929.0</v>
+        <v>1969.0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -509,10 +650,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1930.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -526,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1931.0</v>
+        <v>1971.0</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -543,10 +684,10 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1932.0</v>
+        <v>1972.0</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -560,10 +701,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1933.0</v>
+        <v>1973.0</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -577,10 +718,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1934.0</v>
+        <v>1974.0</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -594,10 +735,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1935.0</v>
+        <v>1975.0</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -611,10 +752,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1936.0</v>
+        <v>1976.0</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -628,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1937.0</v>
+        <v>1977.0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -645,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1938.0</v>
+        <v>1978.0</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -662,10 +803,10 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1939.0</v>
+        <v>1979.0</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -679,10 +820,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1940.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -696,10 +837,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1941.0</v>
+        <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -713,10 +854,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1942.0</v>
+        <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -730,10 +871,10 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1943.0</v>
+        <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -747,10 +888,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1944.0</v>
+        <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -764,10 +905,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1945.0</v>
+        <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -781,10 +922,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1946.0</v>
+        <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
@@ -798,10 +939,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1947.0</v>
+        <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -815,10 +956,10 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1948.0</v>
+        <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -832,10 +973,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1949.0</v>
+        <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
@@ -849,10 +990,10 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1950.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -866,10 +1007,10 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1951.0</v>
+        <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -883,10 +1024,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1952.0</v>
+        <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -900,10 +1041,10 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1953.0</v>
+        <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -917,10 +1058,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1954.0</v>
+        <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -934,10 +1075,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1955.0</v>
+        <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -951,10 +1092,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1956.0</v>
+        <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
@@ -968,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1957.0</v>
+        <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
@@ -985,10 +1126,10 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1958.0</v>
+        <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -1002,10 +1143,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1959.0</v>
+        <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
@@ -1019,10 +1160,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1960.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
@@ -1036,10 +1177,10 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1961.0</v>
+        <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
@@ -1053,10 +1194,10 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1962.0</v>
+        <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
@@ -1070,639 +1211,10 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>1963.0</v>
+        <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1964.0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1965.0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1966.0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1967.0</v>
-      </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1968.0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1969.0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1970.0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1971.0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1972.0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1973.0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1974.0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1975.0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1976.0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1977.0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1978.0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1979.0</v>
-      </c>
-      <c r="E71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1980.0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1981.0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1982.0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1983.0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1984.0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1985.0</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1986.0</v>
-      </c>
-      <c r="E78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1987.0</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1988.0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1989.0</v>
-      </c>
-      <c r="E81" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1990.0</v>
-      </c>
-      <c r="E82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1991.0</v>
-      </c>
-      <c r="E83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1992.0</v>
-      </c>
-      <c r="E84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1993.0</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1994.0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1995.0</v>
-      </c>
-      <c r="E87" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1996.0</v>
-      </c>
-      <c r="E88" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1997.0</v>
-      </c>
-      <c r="E89" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1998.0</v>
-      </c>
-      <c r="E90" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1999.0</v>
-      </c>
-      <c r="E91" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="E92" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1720,50 +1232,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
